--- a/appstore/数据表.xlsx
+++ b/appstore/数据表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>共享箱</t>
   </si>
@@ -109,10 +109,6 @@
 idOrders</t>
   </si>
   <si>
-    <t>idSharecases
-idOrders</t>
-  </si>
-  <si>
     <t>3、借（物品取出）</t>
   </si>
   <si>
@@ -128,8 +124,7 @@
 清空</t>
   </si>
   <si>
-    <t>idSharecases
-物品所有人去除，物品使用人增加</t>
+    <t>物品所有人，物品使用人增加相关订单</t>
   </si>
   <si>
     <t>4、还（物品归还）</t>
@@ -163,9 +158,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,55 +171,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,14 +218,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -260,31 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,23 +300,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,21 +515,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,21 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,9 +559,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,13 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -830,6 +825,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1092,12 +1092,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1174,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" ht="27" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="2:4">
+    <row r="9" ht="40.5" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1242,69 +1242,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" ht="27" spans="3:3">
-      <c r="C18" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" ht="27" spans="4:4">
+      <c r="D20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="4:4">
-      <c r="D21" s="1" t="s">
+    <row r="21" ht="81" spans="2:2">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="81" spans="2:2">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="3:3">
-      <c r="C23" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="4:4">
+      <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="1" t="s">
+    <row r="26" ht="67.5" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="81" spans="3:3">
+      <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" ht="67.5" spans="2:2">
-      <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" ht="81" spans="3:3">
-      <c r="C28" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" ht="81" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="3:3">
+      <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" ht="81" spans="2:2">
-      <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" ht="40.5" spans="3:3">
-      <c r="C32" s="1" t="s">
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/appstore/数据表.xlsx
+++ b/appstore/数据表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>共享箱</t>
   </si>
@@ -143,22 +143,14 @@
   <si>
     <t>5、物品回收</t>
   </si>
-  <si>
-    <t>idSharecases
-idOrders
-物品所有人去除</t>
-  </si>
-  <si>
-    <t>删除订单</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -171,16 +163,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,11 +221,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,42 +244,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -261,14 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -280,13 +271,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,16 +284,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,19 +316,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,163 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,17 +510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,13 +543,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,8 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,24 +599,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,19 +627,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,112 +648,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,12 +1084,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1292,16 +1284,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" ht="40.5" spans="3:3">
-      <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/appstore/数据表.xlsx
+++ b/appstore/数据表.xlsx
@@ -150,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,12 +164,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -177,37 +222,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,56 +252,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,16 +276,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,31 +316,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,151 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,24 +507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,6 +526,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -554,6 +560,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,21 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,12 +1084,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="$A26:$XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1264,23 +1264,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" ht="67.5" spans="2:2">
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" ht="81" spans="3:3">
-      <c r="C27" s="1" t="s">
+    <row r="26" ht="81" spans="3:3">
+      <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" ht="81" spans="2:2">
-      <c r="B30" s="1" t="s">
+    <row r="29" ht="81" spans="2:2">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
